--- a/data/strategies/华泰场内策略结果.xlsx
+++ b/data/strategies/华泰场内策略结果.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="194">
+  <si>
+    <t>富国中证细分机械设备产业ETF</t>
+  </si>
   <si>
     <t>南方中证申万有色金属ETF</t>
   </si>
@@ -32,9 +35,6 @@
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
-    <t>富国中证细分机械设备产业ETF</t>
-  </si>
-  <si>
     <t>再通涨+新制造</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>7.84%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>27.69%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>21.16%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>23.74%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>24.29%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>31.20%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>7.52%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>20.39%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>25.39%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>23.24%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>22.90%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>27.68%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -140,6 +137,9 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159886.OF</t>
+  </si>
+  <si>
     <t>512400.OF</t>
   </si>
   <si>
@@ -152,96 +152,96 @@
     <t>515700.OF</t>
   </si>
   <si>
-    <t>159886.OF</t>
-  </si>
-  <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>1.21%</t>
-  </si>
-  <si>
-    <t>13.04%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>14.28%</t>
-  </si>
-  <si>
-    <t>35.35%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>24.48%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>28.44%</t>
-  </si>
-  <si>
-    <t>32.95%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>14.67%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>21.99%</t>
-  </si>
-  <si>
-    <t>27.84%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>31.38%</t>
-  </si>
-  <si>
-    <t>34.24%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>27.94%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
+    <t>16.87%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>2.96%</t>
+  </si>
+  <si>
+    <t>-6.09%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>22.83%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>4.86%</t>
+  </si>
+  <si>
+    <t>14.51%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>20.60%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>30.60%</t>
+  </si>
+  <si>
+    <t>20.36%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>30.38%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>24.87%</t>
+  </si>
+  <si>
+    <t>35.03%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>28.32%</t>
   </si>
   <si>
     <t>33.28%</t>
   </si>
   <si>
-    <t>34.95%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
+    <t>30.64%</t>
   </si>
   <si>
     <t>36.90%</t>
   </si>
   <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>36.55%</t>
+  </si>
+  <si>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>32.86%</t>
+  </si>
+  <si>
+    <t>35.83%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
+  </si>
+  <si>
     <t>股票代码</t>
   </si>
   <si>
@@ -254,355 +254,352 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>300014.SZ</t>
+  </si>
+  <si>
+    <t>300124.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
   </si>
   <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>300750.SZ</t>
-  </si>
-  <si>
     <t>603799.SH</t>
   </si>
   <si>
-    <t>300014.SZ</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>300450.SZ</t>
+  </si>
+  <si>
+    <t>002709.SZ</t>
   </si>
   <si>
     <t>002340.SZ</t>
   </si>
   <si>
-    <t>300124.SZ</t>
-  </si>
-  <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600019.SH</t>
-  </si>
-  <si>
-    <t>300450.SZ</t>
-  </si>
-  <si>
-    <t>600010.SH</t>
-  </si>
-  <si>
-    <t>601225.SH</t>
-  </si>
-  <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
-    <t>601088.SH</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>600547.SH</t>
-  </si>
-  <si>
-    <t>002709.SZ</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
+    <t>002074.SZ</t>
   </si>
   <si>
     <t>002050.SZ</t>
   </si>
   <si>
-    <t>5.43%</t>
-  </si>
-  <si>
-    <t>4.85%</t>
-  </si>
-  <si>
-    <t>3.93%</t>
-  </si>
-  <si>
-    <t>3.30%</t>
-  </si>
-  <si>
-    <t>2.95%</t>
-  </si>
-  <si>
-    <t>2.43%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>1.72%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>1.58%</t>
+    <t>600885.SH</t>
+  </si>
+  <si>
+    <t>600031.SH</t>
+  </si>
+  <si>
+    <t>603659.SH</t>
+  </si>
+  <si>
+    <t>688005.SH</t>
+  </si>
+  <si>
+    <t>600733.SH</t>
+  </si>
+  <si>
+    <t>300037.SZ</t>
+  </si>
+  <si>
+    <t>600884.SH</t>
+  </si>
+  <si>
+    <t>513.14%</t>
+  </si>
+  <si>
+    <t>343.26%</t>
+  </si>
+  <si>
+    <t>245.32%</t>
+  </si>
+  <si>
+    <t>239.45%</t>
+  </si>
+  <si>
+    <t>215.13%</t>
+  </si>
+  <si>
+    <t>167.97%</t>
+  </si>
+  <si>
+    <t>167.19%</t>
+  </si>
+  <si>
+    <t>138.04%</t>
+  </si>
+  <si>
+    <t>117.53%</t>
+  </si>
+  <si>
+    <t>105.09%</t>
+  </si>
+  <si>
+    <t>93.18%</t>
+  </si>
+  <si>
+    <t>92.96%</t>
+  </si>
+  <si>
+    <t>89.70%</t>
+  </si>
+  <si>
+    <t>68.10%</t>
+  </si>
+  <si>
+    <t>61.95%</t>
+  </si>
+  <si>
+    <t>59.29%</t>
+  </si>
+  <si>
+    <t>56.10%</t>
+  </si>
+  <si>
+    <t>49.83%</t>
+  </si>
+  <si>
+    <t>49.65%</t>
+  </si>
+  <si>
+    <t>45.84%</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>国轩高科</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>璞泰来</t>
+  </si>
+  <si>
+    <t>容百科技</t>
+  </si>
+  <si>
+    <t>北汽蓝谷</t>
+  </si>
+  <si>
+    <t>新宙邦</t>
+  </si>
+  <si>
+    <t>杉杉股份</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>锂离子电池</t>
+  </si>
+  <si>
+    <t>变频器类</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>锂系列产品</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>锂电池设备</t>
+  </si>
+  <si>
+    <t>锂离子电池材料产品</t>
+  </si>
+  <si>
+    <t>三元材料</t>
+  </si>
+  <si>
+    <t>电池组</t>
+  </si>
+  <si>
+    <t>空调冰箱之元器件及部件</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>挖掘机械</t>
+  </si>
+  <si>
+    <t>负极材料</t>
+  </si>
+  <si>
+    <t>三元正极材料</t>
+  </si>
+  <si>
+    <t>整车</t>
+  </si>
+  <si>
+    <t>锂离子电池电解液</t>
+  </si>
+  <si>
+    <t>正极材料</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>104.69%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>89.06%</t>
+  </si>
+  <si>
+    <t>71.37%</t>
+  </si>
+  <si>
+    <t>31.03%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>-23.86%</t>
+  </si>
+  <si>
+    <t>121.25%</t>
+  </si>
+  <si>
+    <t>196.15%</t>
+  </si>
+  <si>
+    <t>52.13%</t>
+  </si>
+  <si>
+    <t>37.99%</t>
+  </si>
+  <si>
+    <t>79.54%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">锂电池 </t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>机械设备</t>
+  </si>
+  <si>
+    <t>42.08%</t>
+  </si>
+  <si>
+    <t>9.83%</t>
+  </si>
+  <si>
+    <t>9.44%</t>
+  </si>
+  <si>
+    <t>6.13%</t>
+  </si>
+  <si>
+    <t>2.24%</t>
+  </si>
+  <si>
+    <t>1.70%</t>
   </si>
   <si>
     <t>1.55%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>1.45%</t>
-  </si>
-  <si>
-    <t>1.34%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.18%</t>
-  </si>
-  <si>
-    <t>1.15%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>1.05%</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宝钢股份</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>包钢股份</t>
-  </si>
-  <si>
-    <t>陕西煤业</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>中国神华</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>山东黄金</t>
-  </si>
-  <si>
-    <t>天赐材料</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>三花智控</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>锂离子电池</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>变频器类</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>其他业务</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>板材</t>
-  </si>
-  <si>
-    <t>原选煤</t>
-  </si>
-  <si>
-    <t>煤炭收入</t>
-  </si>
-  <si>
-    <t>精炼金属贸易</t>
-  </si>
-  <si>
-    <t>外购合质金</t>
-  </si>
-  <si>
-    <t>锂离子电池材料产品</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>空调冰箱之元器件及部件</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>33.59%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>35.90%</t>
-  </si>
-  <si>
-    <t>27.90%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>8.99%</t>
-  </si>
-  <si>
-    <t>-10.07%</t>
-  </si>
-  <si>
-    <t>-16.68%</t>
-  </si>
-  <si>
-    <t>76.18%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">锂电池 </t>
-  </si>
-  <si>
-    <t>钢铁</t>
-  </si>
-  <si>
-    <t>煤炭</t>
-  </si>
-  <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>48.46%</t>
-  </si>
-  <si>
-    <t>15.67%</t>
-  </si>
-  <si>
-    <t>8.16%</t>
-  </si>
-  <si>
-    <t>7.58%</t>
-  </si>
-  <si>
-    <t>7.22%</t>
-  </si>
-  <si>
-    <t>6.48%</t>
-  </si>
-  <si>
-    <t>4.02%</t>
-  </si>
-  <si>
-    <t>2.41%</t>
   </si>
 </sst>
 </file>
@@ -966,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,22 +1032,22 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.064836999224328</v>
+      </c>
+      <c r="C3">
         <v>1.056768131545464</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.015254787406686</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.019661636945588</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.07818653347421</v>
       </c>
-      <c r="F3">
-        <v>1.064836999224328</v>
-      </c>
       <c r="G3">
-        <v>1.052207563081176</v>
+        <v>1.043971682041218</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1064,22 +1061,22 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.079573026780003</v>
+      </c>
+      <c r="C4">
         <v>1.068219633943428</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.006653683868874</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.996342021033379</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.091441744308904</v>
       </c>
-      <c r="F4">
-        <v>1.079573026780003</v>
-      </c>
       <c r="G4">
-        <v>1.056305071889038</v>
+        <v>1.04314968644675</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1093,22 +1090,22 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.086848968240705</v>
+      </c>
+      <c r="C5">
         <v>1.073407066653616</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.006004543979228</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.9872732815119647</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.079195082124676</v>
       </c>
-      <c r="F5">
-        <v>1.086848968240705</v>
-      </c>
       <c r="G5">
-        <v>1.053457215281237</v>
+        <v>1.042067924733195</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1122,22 +1119,22 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.132719877079329</v>
+      </c>
+      <c r="C6">
         <v>1.115102280512871</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.024829600778968</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.002057613168724</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.111756795696859</v>
       </c>
-      <c r="F6">
-        <v>1.132719877079329</v>
-      </c>
       <c r="G6">
-        <v>1.085362792663006</v>
+        <v>1.072598708837877</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1151,22 +1148,22 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.118095518166899</v>
+      </c>
+      <c r="C7">
         <v>1.111187236958011</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.03188899707887</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.9972565157750343</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.098261454231102</v>
       </c>
-      <c r="F7">
-        <v>1.118095518166899</v>
-      </c>
       <c r="G7">
-        <v>1.079015986101509</v>
+        <v>1.065893190711222</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1180,22 +1177,22 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.089060901222685</v>
+      </c>
+      <c r="C8">
         <v>1.063717333855339</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.002921129503408</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.953208352385307</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.055998463163961</v>
       </c>
-      <c r="F8">
-        <v>1.089060901222685</v>
-      </c>
       <c r="G8">
-        <v>1.038240251511366</v>
+        <v>1.028276391902606</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1209,22 +1206,22 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.132395423494981</v>
+      </c>
+      <c r="C9">
         <v>1.08808847998434</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.009818240830899</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.9643347050754458</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.083181250600327</v>
       </c>
-      <c r="F9">
-        <v>1.132395423494981</v>
-      </c>
       <c r="G9">
-        <v>1.06074340341085</v>
+        <v>1.052023171753447</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1238,22 +1235,22 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.118211904329259</v>
+      </c>
+      <c r="C10">
         <v>1.05392972496819</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.011197663096397</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.9606005182136869</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.045961002785516</v>
       </c>
-      <c r="F10">
-        <v>1.118211904329259</v>
-      </c>
       <c r="G10">
-        <v>1.03755813595555</v>
+        <v>1.038008935251123</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1267,22 +1264,22 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.085541383672937</v>
+      </c>
+      <c r="C11">
         <v>1.032984241949692</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.030915287244401</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.9388812680993751</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.018345980213236</v>
       </c>
-      <c r="F11">
-        <v>1.085541383672937</v>
-      </c>
       <c r="G11">
-        <v>1.019422688317738</v>
+        <v>1.018746322932131</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1296,22 +1293,22 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.087277505194144</v>
+      </c>
+      <c r="C12">
         <v>1.043750611725555</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.018987341772152</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.9580856576741351</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.040678128902123</v>
       </c>
-      <c r="F12">
-        <v>1.087277505194144</v>
-      </c>
       <c r="G12">
-        <v>1.030617322624661</v>
+        <v>1.027087454775352</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1325,22 +1322,22 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.102710583442528</v>
+      </c>
+      <c r="C13">
         <v>1.059508662033865</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.019068484258358</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.9780521262002744</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.050859667659207</v>
       </c>
-      <c r="F13">
-        <v>1.102710583442528</v>
-      </c>
       <c r="G13">
-        <v>1.042949648820969</v>
+        <v>1.041101351602595</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1354,22 +1351,22 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.07041606147414</v>
+      </c>
+      <c r="C14">
         <v>1.022413624351571</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.014930217461863</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.9762231367169638</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.02165978292191</v>
       </c>
-      <c r="F14">
-        <v>1.07041606147414</v>
-      </c>
       <c r="G14">
-        <v>1.018936631456282</v>
+        <v>1.021759314021537</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1383,22 +1380,22 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.11199543075996</v>
+      </c>
+      <c r="C15">
         <v>1.053146716257218</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.044303797468354</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.9763755525072396</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.069685909134569</v>
       </c>
-      <c r="F15">
-        <v>1.11199543075996</v>
-      </c>
       <c r="G15">
-        <v>1.051151233189871</v>
+        <v>1.048097462952453</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1412,22 +1409,22 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.141350292764891</v>
+      </c>
+      <c r="C16">
         <v>1.090535382206127</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.046819214540734</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.000990702636793</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.099029872250505</v>
       </c>
-      <c r="F16">
-        <v>1.141350292764891</v>
-      </c>
       <c r="G16">
-        <v>1.078176093190107</v>
+        <v>1.073208475357585</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1441,22 +1438,22 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.169311773426793</v>
+      </c>
+      <c r="C17">
         <v>1.10061661935989</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.033917559234015</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.9763755525072396</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.13019882816252</v>
       </c>
-      <c r="F17">
-        <v>1.169311773426793</v>
-      </c>
       <c r="G17">
-        <v>1.087719778360591</v>
+        <v>1.076906207385548</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1470,22 +1467,22 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.170550022878105</v>
+      </c>
+      <c r="C18">
         <v>1.116178917490457</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.025884453099643</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.969974089315653</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.1354336759197</v>
       </c>
-      <c r="F18">
-        <v>1.170550022878105</v>
-      </c>
       <c r="G18">
-        <v>1.091917561673152</v>
+        <v>1.077010106838613</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1499,22 +1496,22 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.143111330235736</v>
+      </c>
+      <c r="C19">
         <v>1.09601644318293</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.031807854592665</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.9847584209724127</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.107674574968783</v>
       </c>
-      <c r="F19">
-        <v>1.143111330235736</v>
-      </c>
       <c r="G19">
-        <v>1.077903379803849</v>
+        <v>1.068302027525662</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1528,22 +1525,22 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.173343402505447</v>
+      </c>
+      <c r="C20">
         <v>1.089262993050798</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.032456994482311</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.9836915104404815</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.120785707424839</v>
       </c>
-      <c r="F20">
-        <v>1.173343402505447</v>
-      </c>
       <c r="G20">
-        <v>1.082771226131654</v>
+        <v>1.077447042756229</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1557,22 +1554,22 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.114061617230356</v>
+      </c>
+      <c r="C21">
         <v>1.049133796613487</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.01460564751704</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.9545800944977899</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.073191816348093</v>
       </c>
-      <c r="F21">
-        <v>1.114061617230356</v>
-      </c>
       <c r="G21">
-        <v>1.043481706913734</v>
+        <v>1.037472611772832</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1586,22 +1583,22 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.097880501839255</v>
+      </c>
+      <c r="C22">
         <v>1.036312028971322</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.9970788704965919</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.9255448864502361</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.052300451445586</v>
       </c>
-      <c r="F22">
-        <v>1.097880501839255</v>
-      </c>
       <c r="G22">
-        <v>1.024765357851022</v>
+        <v>1.017266296551593</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1615,22 +1612,22 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.101091952976316</v>
+      </c>
+      <c r="C23">
         <v>1.048155035724772</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.9999188575137943</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.9470355128791342</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.048554413600999</v>
       </c>
-      <c r="F23">
-        <v>1.101091952976316</v>
-      </c>
       <c r="G23">
-        <v>1.031165185654302</v>
+        <v>1.02650476510252</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1644,22 +1641,22 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.137013328468826</v>
+      </c>
+      <c r="C24">
         <v>1.078790251541548</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.007546251217137</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.9367474470355129</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.10436077226011</v>
       </c>
-      <c r="F24">
-        <v>1.137013328468826</v>
-      </c>
       <c r="G24">
-        <v>1.060290694725277</v>
+        <v>1.045514785291116</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1673,22 +1670,22 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.143360464903067</v>
+      </c>
+      <c r="C25">
         <v>1.084564940784966</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.022963323596235</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.9300411522633744</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.104120641629046</v>
       </c>
-      <c r="F25">
-        <v>1.143360464903067</v>
-      </c>
       <c r="G25">
-        <v>1.063892392593452</v>
+        <v>1.048561788970017</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1702,22 +1699,22 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.139734654198959</v>
+      </c>
+      <c r="C26">
         <v>1.040227072526182</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.011927945472249</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.9301173601585123</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.0789069253674</v>
       </c>
-      <c r="F26">
-        <v>1.139734654198959</v>
-      </c>
       <c r="G26">
-        <v>1.041020460632585</v>
+        <v>1.036669549543746</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1731,22 +1728,22 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.122197425865832</v>
+      </c>
+      <c r="C27">
         <v>0.9885484976020358</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.003813696851672</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.8964334705075445</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.040774181154548</v>
       </c>
-      <c r="F27">
-        <v>1.122197425865832</v>
-      </c>
       <c r="G27">
-        <v>1.006053621317441</v>
+        <v>1.008521016195524</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1760,22 +1757,22 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.160187383831868</v>
+      </c>
+      <c r="C28">
         <v>1.028873446217089</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.000324569944823</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.9183051364121323</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.066420132552108</v>
       </c>
-      <c r="F28">
-        <v>1.160187383831868</v>
-      </c>
       <c r="G28">
-        <v>1.032401267967489</v>
+        <v>1.034569471752698</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1789,22 +1786,22 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.196258304680301</v>
+      </c>
+      <c r="C29">
         <v>1.080062640696878</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.012009087958455</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.9423868312757201</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.100374603784459</v>
       </c>
-      <c r="F29">
-        <v>1.196258304680301</v>
-      </c>
       <c r="G29">
-        <v>1.066916391697557</v>
+        <v>1.065441760463552</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1818,22 +1815,22 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.214785032647653</v>
+      </c>
+      <c r="C30">
         <v>1.108936086913967</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.020447906523856</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.9370522786160647</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.116319277687062</v>
       </c>
-      <c r="F30">
-        <v>1.214785032647653</v>
-      </c>
       <c r="G30">
-        <v>1.082680140416062</v>
+        <v>1.076590720163495</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1847,22 +1844,22 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.194476137689634</v>
+      </c>
+      <c r="C31">
         <v>1.181070764412254</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.067429406037001</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.9961896052431031</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.101239074056287</v>
       </c>
-      <c r="F31">
-        <v>1.194476137689634</v>
-      </c>
       <c r="G31">
-        <v>1.113683417001541</v>
+        <v>1.104598655852838</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1876,22 +1873,22 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.170724968350102</v>
+      </c>
+      <c r="C32">
         <v>1.197513947342664</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.075462512171373</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.030025910684347</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.07674574968783</v>
       </c>
-      <c r="F32">
-        <v>1.170724968350102</v>
-      </c>
       <c r="G32">
-        <v>1.115173669372516</v>
+        <v>1.108846307606223</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1905,22 +1902,22 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.126369612185044</v>
+      </c>
+      <c r="C33">
         <v>1.254477831065871</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.136643946770529</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1.053802773967383</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.056910959562002</v>
       </c>
-      <c r="F33">
-        <v>1.126369612185044</v>
-      </c>
       <c r="G33">
-        <v>1.134620606517553</v>
+        <v>1.118411078477388</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1934,22 +1931,22 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.125951491017229</v>
+      </c>
+      <c r="C34">
         <v>1.237055887246746</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.127069133398247</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.01882335009907</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.033618288348862</v>
       </c>
-      <c r="F34">
-        <v>1.125951491017229</v>
-      </c>
       <c r="G34">
-        <v>1.115681274305003</v>
+        <v>1.101413034266525</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1963,22 +1960,22 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.080099750203639</v>
+      </c>
+      <c r="C35">
         <v>1.182343153567583</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.102564102564103</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.006553878981862</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="F35">
-        <v>1.080099750203639</v>
-      </c>
       <c r="G35">
-        <v>1.073850573177975</v>
+        <v>1.066988828793884</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -1992,22 +1989,22 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.071389372569089</v>
+      </c>
+      <c r="C36">
         <v>1.168934129392189</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.110029211295034</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.007239750038104</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="F36">
-        <v>1.071389372569089</v>
-      </c>
       <c r="G36">
-        <v>1.064171406740774</v>
+        <v>1.061687200040654</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2021,22 +2018,22 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.047416243955229</v>
+      </c>
+      <c r="C37">
         <v>1.116766174023686</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.087877312560857</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.9740131077579637</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="F37">
-        <v>1.047416243955229</v>
-      </c>
       <c r="G37">
-        <v>1.030296034751787</v>
+        <v>1.030872326868751</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2050,22 +2047,22 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.095415374640601</v>
+      </c>
+      <c r="C38">
         <v>1.158069883527454</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.131775397598183</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.9977899710409998</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.980981654019787</v>
       </c>
-      <c r="F38">
-        <v>1.095415374640601</v>
-      </c>
       <c r="G38">
-        <v>1.07069180402411</v>
+        <v>1.069536561275304</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2079,22 +2076,22 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.096756975004088</v>
+      </c>
+      <c r="C39">
         <v>1.119213076245473</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.127799415774099</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.007239750038104</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="F39">
-        <v>1.096756975004088</v>
-      </c>
       <c r="G39">
-        <v>1.059917952262498</v>
+        <v>1.066325043654466</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2108,22 +2105,22 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.092751255036991</v>
+      </c>
+      <c r="C40">
         <v>1.160908290104727</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.20772476468679</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.049763755525072</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="F40">
-        <v>1.092751255036991</v>
-      </c>
       <c r="G40">
-        <v>1.093534256237822</v>
+        <v>1.097170583277655</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2137,22 +2134,22 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>1.022998650553657</v>
+      </c>
+      <c r="C41">
         <v>1.115395908779485</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.233690360272639</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1.049916171315348</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="F41">
-        <v>1.022998650553657</v>
-      </c>
       <c r="G41">
-        <v>1.059533577661777</v>
+        <v>1.067595373663309</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2166,22 +2163,22 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>1.024189476523347</v>
+      </c>
+      <c r="C42">
         <v>1.077713614563962</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>1.178594612138916</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1.02621551592745</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="F42">
-        <v>1.024189476523347</v>
-      </c>
       <c r="G42">
-        <v>1.036456472276527</v>
+        <v>1.046901705422354</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2195,22 +2192,22 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9697246010415811</v>
+      </c>
+      <c r="C43">
         <v>1.047861407458158</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>1.168451801363194</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1.022557536960829</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="F43">
-        <v>0.9697246010415811</v>
-      </c>
       <c r="G43">
-        <v>1.00527380167632</v>
+        <v>1.018562128919296</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2224,22 +2221,22 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.9405647215503586</v>
+      </c>
+      <c r="C44">
         <v>1.030733091905647</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>1.179811749432003</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1.011278768480415</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="F44">
-        <v>0.9405647215503586</v>
-      </c>
       <c r="G44">
-        <v>0.9926642113968795</v>
+        <v>1.004042851204308</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2253,22 +2250,22 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9575414961981824</v>
+      </c>
+      <c r="C45">
         <v>1.029852207105804</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>1.158876987990912</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1.022252705380277</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.890500432235136</v>
       </c>
-      <c r="F45">
-        <v>0.9575414961981824</v>
-      </c>
       <c r="G45">
-        <v>0.9990293954277786</v>
+        <v>1.011297682961559</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2282,22 +2279,22 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9878844301670798</v>
+      </c>
+      <c r="C46">
         <v>1.093080160516786</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>1.216812723141837</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1.046105776558451</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="F46">
-        <v>0.9878844301670798</v>
-      </c>
       <c r="G46">
-        <v>1.041195890946689</v>
+        <v>1.04836286950642</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2311,22 +2308,22 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>1.003011366253994</v>
+      </c>
+      <c r="C47">
         <v>1.080160516785749</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1.223304122038299</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1.060051821368694</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="F47">
-        <v>1.003011366253994</v>
-      </c>
       <c r="G47">
-        <v>1.043079750696907</v>
+        <v>1.056514341285325</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2340,22 +2337,22 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.957573314623156</v>
+      </c>
+      <c r="C48">
         <v>1.082411666829794</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1.240425186627718</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1.073083371437281</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="F48">
-        <v>0.957573314623156</v>
-      </c>
       <c r="G48">
-        <v>1.035219150568232</v>
+        <v>1.046859878952501</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2369,22 +2366,22 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9641298964915476</v>
+      </c>
+      <c r="C49">
         <v>1.059704414211608</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>1.223547549496917</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>1.054336229233348</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.894870809720488</v>
       </c>
-      <c r="F49">
-        <v>0.9641298964915476</v>
-      </c>
       <c r="G49">
-        <v>1.024468123638323</v>
+        <v>1.037514713245796</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2398,22 +2395,22 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9797492298432793</v>
+      </c>
+      <c r="C50">
         <v>1.065576979543897</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>1.205939629990263</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1.063404968754763</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="F50">
-        <v>0.9797492298432793</v>
-      </c>
       <c r="G50">
-        <v>1.033282633371382</v>
+        <v>1.04541805991358</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2427,22 +2424,22 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9930284130093138</v>
+      </c>
+      <c r="C51">
         <v>1.065674855632769</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>1.21811100292113</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1.050449626581314</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="F51">
-        <v>0.9930284130093138</v>
-      </c>
       <c r="G51">
-        <v>1.035516459940862</v>
+        <v>1.047686979835184</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2456,22 +2453,22 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9594343262556518</v>
+      </c>
+      <c r="C52">
         <v>1.042869726925712</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>1.209672184355729</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1.038332571254382</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="F52">
-        <v>0.9594343262556518</v>
-      </c>
       <c r="G52">
-        <v>1.013039931012426</v>
+        <v>1.02622297826777</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2485,22 +2482,22 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9743116683378479</v>
+      </c>
+      <c r="C53">
         <v>1.046491142213957</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>1.215433300876339</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>1.04541990550221</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="F53">
-        <v>0.9743116683378479</v>
-      </c>
       <c r="G53">
-        <v>1.020912791482513</v>
+        <v>1.035343572291481</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2514,22 +2511,22 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9522220340594204</v>
+      </c>
+      <c r="C54">
         <v>1.005970441421161</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>1.167883803959753</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1.005639384240207</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="F54">
-        <v>0.9522220340594204</v>
-      </c>
       <c r="G54">
-        <v>0.9834922991261591</v>
+        <v>1.00025339065165</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2543,22 +2540,22 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9211961771261079</v>
+      </c>
+      <c r="C55">
         <v>0.9642752275619065</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>1.123904576436222</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.9823197683279987</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="F55">
-        <v>0.9211961771261079</v>
-      </c>
       <c r="G55">
-        <v>0.9488822789598635</v>
+        <v>0.9681305679906339</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2572,22 +2569,22 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9254323106583666</v>
+      </c>
+      <c r="C56">
         <v>0.9700499168053244</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>1.129341123012009</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1.002819692120104</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="F56">
-        <v>0.9254323106583666</v>
-      </c>
       <c r="G56">
-        <v>0.9590926347839361</v>
+        <v>0.9786210256083694</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2601,22 +2598,22 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.966795915517327</v>
+      </c>
+      <c r="C57">
         <v>1.003132034843887</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>1.14930217461863</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1.005105928974242</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="F57">
-        <v>0.966795915517327</v>
-      </c>
       <c r="G57">
-        <v>0.98925606829784</v>
+        <v>1.003927568351518</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2630,22 +2627,22 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9613277397957485</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>1.158390133073677</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>1.053878981862521</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="F58">
-        <v>0.9613277397957485</v>
-      </c>
       <c r="G58">
-        <v>0.9931782127789327</v>
+        <v>1.016722226978175</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2659,22 +2656,22 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9855462042326004</v>
+      </c>
+      <c r="C59">
         <v>1.01380052853088</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>1.169344368711457</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>1.038103947568968</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="F59">
-        <v>0.9855462042326004</v>
-      </c>
       <c r="G59">
-        <v>1.002734320152376</v>
+        <v>1.024207544702751</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2688,22 +2685,22 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9740848425701178</v>
+      </c>
+      <c r="C60">
         <v>0.9898208867573652</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>1.159769555339176</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>1.034827008078037</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>0.883872826817789</v>
       </c>
-      <c r="F60">
-        <v>0.9740848425701178</v>
-      </c>
       <c r="G60">
-        <v>0.9887060828421399</v>
+        <v>1.013499404190706</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2717,22 +2714,22 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.987651620598789</v>
+      </c>
+      <c r="C61">
         <v>0.9985318586669276</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>1.197987666342097</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>1.039018442310623</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="F61">
-        <v>0.987651620598789</v>
-      </c>
       <c r="G61">
-        <v>1.004123450769122</v>
+        <v>1.027561552561263</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2746,22 +2743,22 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.9912429189262187</v>
+      </c>
+      <c r="C62">
         <v>1.007047078398747</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>1.178026614735475</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>1.026444139612864</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0.913937181826914</v>
       </c>
-      <c r="F62">
-        <v>0.9912429189262187</v>
-      </c>
       <c r="G62">
-        <v>1.006090183112571</v>
+        <v>1.02446088971455</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2775,22 +2772,22 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.9972846580704282</v>
+      </c>
+      <c r="C63">
         <v>1.012528139375551</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>1.192956832197339</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>1.035970126505106</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="F63">
-        <v>0.9972846580704282</v>
-      </c>
       <c r="G63">
-        <v>1.013318219218754</v>
+        <v>1.03262993703982</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2804,22 +2801,22 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9818758502164342</v>
+      </c>
+      <c r="C64">
         <v>1.024664774395615</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>1.245456020772477</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>1.051135497637555</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>0.911391797137643</v>
       </c>
-      <c r="F64">
-        <v>0.9818758502164342</v>
-      </c>
       <c r="G64">
-        <v>1.023493284243125</v>
+        <v>1.041560703345175</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2833,22 +2830,22 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9747396466377068</v>
+      </c>
+      <c r="C65">
         <v>1.037584418126652</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>1.261116520610192</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>1.058451455570797</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="F65">
-        <v>0.9747396466377068</v>
-      </c>
       <c r="G65">
-        <v>1.028646834045964</v>
+        <v>1.045416587312094</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2862,22 +2859,22 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9524671215919324</v>
+      </c>
+      <c r="C66">
         <v>1.035039639815993</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>1.273531320999675</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>1.075369608291419</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="F66">
-        <v>0.9524671215919324</v>
-      </c>
       <c r="G66">
-        <v>1.025272688843924</v>
+        <v>1.043696311536112</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2891,22 +2888,22 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9278043537561812</v>
+      </c>
+      <c r="C67">
         <v>0.9920720368014094</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>1.291220382992535</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>1.067977442463039</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="F67">
-        <v>0.9278043537561812</v>
-      </c>
       <c r="G67">
-        <v>1.002426951240044</v>
+        <v>1.02727681217008</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2920,22 +2917,22 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9331816427476655</v>
+      </c>
+      <c r="C68">
         <v>0.9850249584026621</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>1.26460564751704</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>1.044657826550831</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="F68">
-        <v>0.9331816427476655</v>
-      </c>
       <c r="G68">
-        <v>0.9948876347249754</v>
+        <v>1.017353918950581</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2949,22 +2946,22 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9573434845406216</v>
+      </c>
+      <c r="C69">
         <v>1.008515219731819</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>1.287650113599481</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>1.053574150281969</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="F69">
-        <v>0.9573434845406216</v>
-      </c>
       <c r="G69">
-        <v>1.021434901472875</v>
+        <v>1.038354206285489</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2978,22 +2975,22 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9588850704709834</v>
+      </c>
+      <c r="C70">
         <v>1.024273270040129</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>1.277263875365141</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1.062795305593659</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="F70">
-        <v>0.9588850704709834</v>
-      </c>
       <c r="G70">
-        <v>1.025651846232637</v>
+        <v>1.042225511640077</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3007,22 +3004,22 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9539997194069288</v>
+      </c>
+      <c r="C71">
         <v>1.01840070470784</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>1.281077572216813</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>1.095412284712696</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="F71">
-        <v>0.9539997194069288</v>
-      </c>
       <c r="G71">
-        <v>1.027093978864904</v>
+        <v>1.049645448432063</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3036,22 +3033,22 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9988562623197857</v>
+      </c>
+      <c r="C72">
         <v>1.056670255456592</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>1.272963323596235</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>1.107529340039628</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="F72">
-        <v>0.9988562623197857</v>
-      </c>
       <c r="G72">
-        <v>1.061584269689333</v>
+        <v>1.077235273324081</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3065,22 +3062,22 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9977594639547586</v>
+      </c>
+      <c r="C73">
         <v>1.046784770480572</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>1.284647841609867</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>1.101661332114007</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="F73">
-        <v>0.9977594639547586</v>
-      </c>
       <c r="G73">
-        <v>1.056917680598517</v>
+        <v>1.074594439634291</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3094,22 +3091,22 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.9944365800504087</v>
+      </c>
+      <c r="C74">
         <v>1.039346187726339</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>1.254462836741318</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>1.099679926840421</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="F74">
-        <v>0.9944365800504087</v>
-      </c>
       <c r="G74">
-        <v>1.049111028562441</v>
+        <v>1.067220338971477</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3123,22 +3120,22 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.9946952863157321</v>
+      </c>
+      <c r="C75">
         <v>1.043652735636684</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1.279941577409932</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>1.110730071635421</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="F75">
-        <v>0.9946952863157321</v>
-      </c>
       <c r="G75">
-        <v>1.056628588274809</v>
+        <v>1.075320918207481</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3152,22 +3149,22 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.011937222781352</v>
+      </c>
+      <c r="C76">
         <v>1.055006361945777</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>1.301606621226874</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>1.095564700502972</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="F76">
-        <v>1.011937222781352</v>
-      </c>
       <c r="G76">
-        <v>1.067012948562321</v>
+        <v>1.082323064274853</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3181,22 +3178,22 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.9875027952852568</v>
+      </c>
+      <c r="C77">
         <v>1.06313007732211</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>1.285540408958131</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>1.118350861149215</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="F77">
-        <v>0.9875027952852568</v>
-      </c>
       <c r="G77">
-        <v>1.064138904296875</v>
+        <v>1.079345306890916</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3210,22 +3207,22 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.9833019065865914</v>
+      </c>
+      <c r="C78">
         <v>1.065479103455026</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>1.274586173320351</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>1.10227099527511</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="F78">
-        <v>0.9833019065865914</v>
-      </c>
       <c r="G78">
-        <v>1.058308087225577</v>
+        <v>1.071283525488514</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3239,22 +3236,22 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.008222176478839</v>
+      </c>
+      <c r="C79">
         <v>1.065870607810512</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>1.287650113599481</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>1.139308032312148</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="F79">
-        <v>1.008222176478839</v>
-      </c>
       <c r="G79">
-        <v>1.076241760241051</v>
+        <v>1.094492050303218</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3268,22 +3265,22 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.010195961647215</v>
+      </c>
+      <c r="C80">
         <v>1.076049721053147</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>1.276858162934112</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>1.147843316567596</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="F80">
-        <v>1.010195961647215</v>
-      </c>
       <c r="G80">
-        <v>1.079010294390554</v>
+        <v>1.097504819390743</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3297,22 +3294,22 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.023828313191575</v>
+      </c>
+      <c r="C81">
         <v>1.073798571009102</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>1.264524505030834</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>1.110196616369456</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="F81">
-        <v>1.023828313191575</v>
-      </c>
       <c r="G81">
-        <v>1.078353277584405</v>
+        <v>1.090163509191791</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3326,22 +3323,22 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.015476504253284</v>
+      </c>
+      <c r="C82">
         <v>1.10061661935989</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>1.333657903278156</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>1.165599756134736</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="F82">
-        <v>1.015476504253284</v>
-      </c>
       <c r="G82">
-        <v>1.102010777028814</v>
+        <v>1.117927220473308</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3355,22 +3352,22 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.9879733678169083</v>
+      </c>
+      <c r="C83">
         <v>1.129587941665851</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>1.368062317429406</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>1.218030787989636</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="F83">
-        <v>0.9879733678169083</v>
-      </c>
       <c r="G83">
-        <v>1.112217211556698</v>
+        <v>1.131991961093717</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3384,22 +3381,22 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9855024306210293</v>
+      </c>
+      <c r="C84">
         <v>1.185181560144857</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>1.434761441090555</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>1.290504496265813</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="F84">
-        <v>0.9855024306210293</v>
-      </c>
       <c r="G84">
-        <v>1.152218393851941</v>
+        <v>1.172234792299006</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3413,22 +3410,22 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9754708124423276</v>
+      </c>
+      <c r="C85">
         <v>1.136341391797984</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>1.3862382343395</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>1.2533150434385</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="F85">
-        <v>0.9754708124423276</v>
-      </c>
       <c r="G85">
-        <v>1.117727029879777</v>
+        <v>1.141470880494687</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3442,22 +3439,22 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9719066646788531</v>
+      </c>
+      <c r="C86">
         <v>1.141920328863659</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>1.405063291139241</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>1.267946959304984</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="F86">
-        <v>0.9719066646788531</v>
-      </c>
       <c r="G86">
-        <v>1.125172245638578</v>
+        <v>1.14882161117724</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3471,22 +3468,22 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9534158271003422</v>
+      </c>
+      <c r="C87">
         <v>1.084662816873838</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>1.328059071729958</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>1.201722298430117</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="F87">
-        <v>0.9534158271003422</v>
-      </c>
       <c r="G87">
-        <v>1.078033970823812</v>
+        <v>1.101058500125579</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3500,22 +3497,22 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9784768404510082</v>
+      </c>
+      <c r="C88">
         <v>1.089850249584027</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>1.321729957805907</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>1.185566224660875</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="F88">
-        <v>0.9784768404510082</v>
-      </c>
       <c r="G88">
-        <v>1.087627567617768</v>
+        <v>1.106526744417869</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3529,22 +3526,22 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.00820822255388</v>
+      </c>
+      <c r="C89">
         <v>1.121757854556132</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>1.315644271340474</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>1.185261393080323</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>1.002449332436846</v>
       </c>
-      <c r="F89">
-        <v>1.00820822255388</v>
-      </c>
       <c r="G89">
-        <v>1.113218828016401</v>
+        <v>1.123896136818436</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3558,22 +3555,22 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.000863988796736</v>
+      </c>
+      <c r="C90">
         <v>1.136047763531369</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1.331710483609218</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>1.192196311537875</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>1.003361828834886</v>
       </c>
-      <c r="F90">
-        <v>1.000863988796736</v>
-      </c>
       <c r="G90">
-        <v>1.120495295861614</v>
+        <v>1.12841801005496</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3587,22 +3584,22 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.012187536828461</v>
+      </c>
+      <c r="C91">
         <v>1.142311833219144</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>1.306231742940604</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>1.168876695625667</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>1.040149841513784</v>
       </c>
-      <c r="F91">
-        <v>1.012187536828461</v>
-      </c>
       <c r="G91">
-        <v>1.127223521887665</v>
+        <v>1.125615790311579</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3616,22 +3613,22 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.012817151826885</v>
+      </c>
+      <c r="C92">
         <v>1.107957326025252</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>1.24943200259656</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>1.12002743484225</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>1.044616271251561</v>
       </c>
-      <c r="F92">
-        <v>1.012817151826885</v>
-      </c>
       <c r="G92">
-        <v>1.102472709981554</v>
+        <v>1.097923402419168</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3645,22 +3642,22 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.004362736847858</v>
+      </c>
+      <c r="C93">
         <v>1.114221395713027</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1.276858162934112</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>1.141365645480872</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>1.040437998271059</v>
       </c>
-      <c r="F93">
-        <v>1.004362736847858</v>
-      </c>
       <c r="G93">
-        <v>1.109567663142259</v>
+        <v>1.106424248322796</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3674,22 +3671,22 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.010270560521841</v>
+      </c>
+      <c r="C94">
         <v>1.106195556425565</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>1.252921129503408</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>1.138393537570492</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>1.046825473057343</v>
       </c>
-      <c r="F94">
-        <v>1.010270560521841</v>
-      </c>
       <c r="G94">
-        <v>1.105630564958142</v>
+        <v>1.10314927962278</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3703,22 +3700,22 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.027854939217063</v>
+      </c>
+      <c r="C95">
         <v>1.115493784868357</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>1.262820512820513</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>1.156149977137631</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>1.060320814523101</v>
       </c>
-      <c r="F95">
-        <v>1.027854939217063</v>
-      </c>
       <c r="G95">
-        <v>1.118375447232865</v>
+        <v>1.117980701012049</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3732,22 +3729,22 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.019992001818778</v>
+      </c>
+      <c r="C96">
         <v>1.125477145933248</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>1.260873093151574</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>1.158131382411218</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>1.051195850542695</v>
       </c>
-      <c r="F96">
-        <v>1.019992001818778</v>
-      </c>
       <c r="G96">
-        <v>1.11785177045908</v>
+        <v>1.116509136185991</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3761,22 +3758,22 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.027098174663985</v>
+      </c>
+      <c r="C97">
         <v>1.125672898110991</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>1.268987341772152</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>1.176116445663771</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>1.054605705503794</v>
       </c>
-      <c r="F97">
-        <v>1.027098174663985</v>
-      </c>
       <c r="G97">
-        <v>1.123558966666222</v>
+        <v>1.125623992631178</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3790,22 +3787,22 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.045181443420068</v>
+      </c>
+      <c r="C98">
         <v>1.142996965841245</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>1.264443362544629</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>1.166819082456942</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>1.100230525405821</v>
       </c>
-      <c r="F98">
-        <v>1.045181443420068</v>
-      </c>
       <c r="G98">
-        <v>1.142175758466362</v>
+        <v>1.134739259561566</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3819,22 +3816,22 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.077606578595302</v>
+      </c>
+      <c r="C99">
         <v>1.174415190368993</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1.264281077572217</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>1.172001219326322</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>1.15565267505523</v>
       </c>
-      <c r="F99">
-        <v>1.077606578595302</v>
-      </c>
       <c r="G99">
-        <v>1.172223362021578</v>
+        <v>1.156252047073192</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3848,22 +3845,22 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.070294895720047</v>
+      </c>
+      <c r="C100">
         <v>1.176079083879808</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1.270853618954885</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>1.212620027434842</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>1.144894822783594</v>
       </c>
-      <c r="F100">
-        <v>1.070294895720047</v>
-      </c>
       <c r="G100">
-        <v>1.175842708529484</v>
+        <v>1.16640386465003</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3877,22 +3874,22 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.061065243376252</v>
+      </c>
+      <c r="C101">
         <v>1.15914652050504</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1.250081142486206</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>1.219554945892394</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>1.139131687638075</v>
       </c>
-      <c r="F101">
-        <v>1.061065243376252</v>
-      </c>
       <c r="G101">
-        <v>1.16603540003735</v>
+        <v>1.159483374993088</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3906,22 +3903,22 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.038995236460245</v>
+      </c>
+      <c r="C102">
         <v>1.159440148771655</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1.277994157740993</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>1.239216582837982</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>1.133560656997407</v>
       </c>
-      <c r="F102">
-        <v>1.038995236460245</v>
-      </c>
       <c r="G102">
-        <v>1.169381376463589</v>
+        <v>1.162434757466106</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3935,22 +3932,22 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.049185810204051</v>
+      </c>
+      <c r="C103">
         <v>1.15581873348341</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1.259899383317105</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>1.220317024843774</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>1.162376332725003</v>
       </c>
-      <c r="F103">
-        <v>1.049185810204051</v>
-      </c>
       <c r="G103">
-        <v>1.172409562107061</v>
+        <v>1.159446201306925</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3964,22 +3961,22 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.027612260102204</v>
+      </c>
+      <c r="C104">
         <v>1.150533424684349</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>1.245131450827653</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>1.237768632830361</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>1.137114590337144</v>
       </c>
-      <c r="F104">
-        <v>1.027612260102204</v>
-      </c>
       <c r="G104">
-        <v>1.16149064306537</v>
+        <v>1.152675458240284</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -3993,22 +3990,22 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.02929647649863</v>
+      </c>
+      <c r="C105">
         <v>1.124009004600176</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>1.247565725413827</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>1.229995427526292</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>1.128710018249928</v>
       </c>
-      <c r="F105">
-        <v>1.02929647649863</v>
-      </c>
       <c r="G105">
-        <v>1.150379527445912</v>
+        <v>1.14639478253457</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4022,22 +4019,22 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.03198327743756</v>
+      </c>
+      <c r="C106">
         <v>1.12753254379955</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>1.268419344368712</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>1.28174058832495</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>1.127413312842186</v>
       </c>
-      <c r="F106">
-        <v>1.03198327743756</v>
-      </c>
       <c r="G106">
-        <v>1.162206074640326</v>
+        <v>1.166251274238211</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4051,22 +4048,22 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.06555237375444</v>
+      </c>
+      <c r="C107">
         <v>1.132719976509739</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1.281807854592665</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>1.271452522481329</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>1.169964460666603</v>
       </c>
-      <c r="F107">
-        <v>1.06555237375444</v>
-      </c>
       <c r="G107">
-        <v>1.180349625089445</v>
+        <v>1.180277089602752</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4080,22 +4077,22 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.081025017090765</v>
+      </c>
+      <c r="C108">
         <v>1.133600861309582</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>1.295602077247647</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>1.278997104099985</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>1.182163096724618</v>
       </c>
-      <c r="F108">
-        <v>1.081025017090765</v>
-      </c>
       <c r="G108">
-        <v>1.189021566321481</v>
+        <v>1.190603386813271</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4109,22 +4106,22 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.066108730646828</v>
+      </c>
+      <c r="C109">
         <v>1.096701575805031</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>1.2640376501136</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>1.273662551440329</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>1.177408510229565</v>
       </c>
-      <c r="F109">
-        <v>1.066108730646828</v>
-      </c>
       <c r="G109">
-        <v>1.169498929108151</v>
+        <v>1.173783119536898</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4138,22 +4135,22 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.021693263356634</v>
+      </c>
+      <c r="C110">
         <v>1.050308309679945</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>1.237341772151899</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>1.265584514555708</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>1.10147920468735</v>
       </c>
-      <c r="F110">
-        <v>1.021693263356634</v>
-      </c>
       <c r="G110">
-        <v>1.123144523651993</v>
+        <v>1.139478766117214</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4167,22 +4164,22 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.039040226695167</v>
+      </c>
+      <c r="C111">
         <v>1.054810609768034</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>1.222898409607271</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>1.273129096174364</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>1.133128421861493</v>
       </c>
-      <c r="F111">
-        <v>1.039040226695167</v>
-      </c>
       <c r="G111">
-        <v>1.13468985802562</v>
+        <v>1.148619991953304</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4196,22 +4193,22 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.06684170897195</v>
+      </c>
+      <c r="C112">
         <v>1.073504942742488</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>1.221194417396949</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>1.245313214449017</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>1.187926231870138</v>
       </c>
-      <c r="F112">
-        <v>1.06684170897195</v>
-      </c>
       <c r="G112">
-        <v>1.155089668057878</v>
+        <v>1.156644004234219</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4225,22 +4222,22 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.081004197934042</v>
+      </c>
+      <c r="C113">
         <v>1.068121757854556</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>1.248539435248296</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>1.224051211705533</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>1.192968975122467</v>
       </c>
-      <c r="F113">
-        <v>1.081004197934042</v>
-      </c>
       <c r="G113">
-        <v>1.157316236729585</v>
+        <v>1.158312699369547</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4254,22 +4251,22 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.085273316856529</v>
+      </c>
+      <c r="C114">
         <v>1.073896447097974</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1.24115546900357</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>1.238225880201189</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>1.193593314763231</v>
       </c>
-      <c r="F114">
-        <v>1.085273316856529</v>
-      </c>
       <c r="G114">
-        <v>1.160681462624728</v>
+        <v>1.16366687800887</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4283,22 +4280,22 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.100747512008352</v>
+      </c>
+      <c r="C115">
         <v>1.092003523539199</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1.253164556962025</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>1.280521262002743</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>1.227211603112093</v>
       </c>
-      <c r="F115">
-        <v>1.100747512008352</v>
-      </c>
       <c r="G115">
-        <v>1.185892162040938</v>
+        <v>1.188877004589721</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4312,22 +4309,22 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.113809018910833</v>
+      </c>
+      <c r="C116">
         <v>1.084956445140452</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1.254300551768906</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>1.286694101508916</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>1.212563634617232</v>
       </c>
-      <c r="F116">
-        <v>1.113809018910833</v>
-      </c>
       <c r="G116">
-        <v>1.181786123810062</v>
+        <v>1.192295849124052</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4341,22 +4338,22 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.131908687253101</v>
+      </c>
+      <c r="C117">
         <v>1.113829891357541</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>1.28440441415125</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>1.329522938576436</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>1.235616175199308</v>
       </c>
-      <c r="F117">
-        <v>1.131908687253101</v>
-      </c>
       <c r="G117">
-        <v>1.210113791601518</v>
+        <v>1.22172625109511</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4370,28 +4367,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.113829891357541</v>
+        <v>1.146698010360243</v>
       </c>
       <c r="C118">
-        <v>1.28440441415125</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="D118">
-        <v>1.329522938576436</v>
+        <v>1.271583901330737</v>
       </c>
       <c r="E118">
-        <v>1.235616175199308</v>
+        <v>1.257506477671087</v>
       </c>
       <c r="F118">
-        <v>1.146698047603815</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="G118">
-        <v>1.211592727636589</v>
+        <v>1.204400417670946</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.160105385900947</v>
+      </c>
+      <c r="C119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="D119">
+        <v>1.251703992210321</v>
+      </c>
+      <c r="E119">
+        <v>1.235558603871361</v>
+      </c>
+      <c r="F119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="G119">
+        <v>1.19680501767478</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.183642777137457</v>
+      </c>
+      <c r="C120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="D120">
+        <v>1.258763388510224</v>
+      </c>
+      <c r="E120">
+        <v>1.245084590763603</v>
+      </c>
+      <c r="F120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="G120">
+        <v>1.214022326406099</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.161165300715214</v>
+      </c>
+      <c r="C121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="D121">
+        <v>1.259169100941253</v>
+      </c>
+      <c r="E121">
+        <v>1.217802164304222</v>
+      </c>
+      <c r="F121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="G121">
+        <v>1.194328220074361</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.138213688792936</v>
+      </c>
+      <c r="C122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="D122">
+        <v>1.256978253813697</v>
+      </c>
+      <c r="E122">
+        <v>1.21566834324036</v>
+      </c>
+      <c r="F122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="G122">
+        <v>1.188131838429989</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.144097055854669</v>
+      </c>
+      <c r="C123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="D123">
+        <v>1.261603375527426</v>
+      </c>
+      <c r="E123">
+        <v>1.243026977594879</v>
+      </c>
+      <c r="F123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="G123">
+        <v>1.210074837439088</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.134395912304448</v>
+      </c>
+      <c r="C124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="D124">
+        <v>1.25365141187926</v>
+      </c>
+      <c r="E124">
+        <v>1.243560432860844</v>
+      </c>
+      <c r="F124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="G124">
+        <v>1.207993266569452</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.18707277355475</v>
+      </c>
+      <c r="C125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="D125">
+        <v>1.286838688737423</v>
+      </c>
+      <c r="E125">
+        <v>1.224432251181222</v>
+      </c>
+      <c r="F125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="G125">
+        <v>1.235991438445853</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.203272436244684</v>
+      </c>
+      <c r="C126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="D126">
+        <v>1.263550795196365</v>
+      </c>
+      <c r="E126">
+        <v>1.172839506172839</v>
+      </c>
+      <c r="F126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="G126">
+        <v>1.224778190074152</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.206036207232322</v>
+      </c>
+      <c r="C127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="D127">
+        <v>1.305988315481986</v>
+      </c>
+      <c r="E127">
+        <v>1.203627495808566</v>
+      </c>
+      <c r="F127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="G127">
+        <v>1.253911928584717</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4503,18 +4761,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4546,19 +4804,16 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -4576,30 +4831,27 @@
         <v>69</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>4.518700122833252</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>39.26179885864258</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.5733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -4617,30 +4869,27 @@
         <v>70</v>
       </c>
       <c r="I3">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J3">
-        <v>12.07</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K3">
-        <v>1.24</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L3">
-        <v>2.59</v>
-      </c>
-      <c r="M3">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -4661,27 +4910,24 @@
         <v>0.15</v>
       </c>
       <c r="J4">
-        <v>10.5</v>
+        <v>1.256600022315979</v>
       </c>
       <c r="K4">
-        <v>1.19</v>
+        <v>12.42870044708252</v>
       </c>
       <c r="L4">
-        <v>-0.11</v>
-      </c>
-      <c r="M4">
-        <v>-7.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.5765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -4699,30 +4945,27 @@
         <v>72</v>
       </c>
       <c r="I5">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="J5">
-        <v>133.48</v>
+        <v>1.161100029945374</v>
       </c>
       <c r="K5">
-        <v>9.199999999999999</v>
+        <v>10.14039993286133</v>
       </c>
       <c r="L5">
-        <v>4.83</v>
-      </c>
-      <c r="M5">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-7.3254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -4740,19 +4983,16 @@
         <v>73</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J6">
-        <v>36.67</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K6">
-        <v>4.21</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L6">
-        <v>14.81</v>
-      </c>
-      <c r="M6">
-        <v>21.57</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +5042,7 @@
         <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4822,7 +5062,7 @@
         <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4842,7 +5082,7 @@
         <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4862,7 +5102,7 @@
         <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4882,7 +5122,7 @@
         <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4902,7 +5142,7 @@
         <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4922,7 +5162,7 @@
         <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4942,7 +5182,7 @@
         <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4962,7 +5202,7 @@
         <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4982,7 +5222,7 @@
         <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5002,7 +5242,7 @@
         <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5022,7 +5262,7 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5042,7 +5282,7 @@
         <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5059,10 +5299,10 @@
         <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5079,10 +5319,10 @@
         <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5099,10 +5339,10 @@
         <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5119,10 +5359,10 @@
         <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5139,10 +5379,10 @@
         <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5159,10 +5399,10 @@
         <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5179,10 +5419,10 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5192,7 +5432,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5200,18 +5440,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>187</v>
@@ -5219,10 +5459,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>188</v>
@@ -5241,7 +5481,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>183</v>
@@ -5252,7 +5492,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>184</v>
@@ -5274,24 +5514,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
